--- a/Documentação/Riscos.xlsx
+++ b/Documentação/Riscos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranye\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bunag\Desktop\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F28D3B-1951-478E-9C54-8369ABA7935C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81DD2FE-9F70-42BF-B725-D0F39EEC84E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C996371-5FAD-4F1B-A749-D97D81AD3AC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C996371-5FAD-4F1B-A749-D97D81AD3AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Falta de comunicação</t>
   </si>
   <si>
-    <t>Marcar Happy Hour</t>
-  </si>
-  <si>
     <t>15 dias</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Realizar atualização semanal</t>
+  </si>
+  <si>
+    <t>Marcar reuniões semanais</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
@@ -707,9 +707,11 @@
         <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
@@ -719,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -734,7 +736,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>23</v>
@@ -748,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -763,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>26</v>
@@ -774,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
@@ -789,7 +791,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>26</v>
@@ -800,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
@@ -815,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>26</v>
@@ -826,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -841,10 +843,10 @@
         <v>24</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">

--- a/Documentação/Riscos.xlsx
+++ b/Documentação/Riscos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bunag\Desktop\control-block\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81DD2FE-9F70-42BF-B725-D0F39EEC84E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6C996371-5FAD-4F1B-A749-D97D81AD3AC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -138,12 +137,6 @@
     <t>Queima do sensor</t>
   </si>
   <si>
-    <t>Integrande do grupo faltar no dia da apresentação</t>
-  </si>
-  <si>
-    <t>Avisar o grupo com antecedência</t>
-  </si>
-  <si>
     <t>Manter sensores de reserva</t>
   </si>
   <si>
@@ -163,12 +156,21 @@
   </si>
   <si>
     <t>Marcar reuniões semanais</t>
+  </si>
+  <si>
+    <t>Integrande do grupo desistir</t>
+  </si>
+  <si>
+    <t>Aceitar</t>
+  </si>
+  <si>
+    <t>Redistribuir tarefas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F37BC76-6CDB-4E5B-82FE-FC7FA4B7321A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>26</v>
@@ -765,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>26</v>
@@ -776,22 +778,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>26</v>
@@ -802,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
@@ -817,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>26</v>
@@ -828,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -843,10 +845,10 @@
         <v>24</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">

--- a/Documentação/Riscos.xlsx
+++ b/Documentação/Riscos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\control-block\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bunag\Desktop\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C54A3C-B117-4D7F-829B-9ED0C022E44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -90,15 +85,6 @@
   </si>
   <si>
     <t>Falha na conexão com o servidor na nuvem (Azure)</t>
-  </si>
-  <si>
-    <t>aceitar</t>
-  </si>
-  <si>
-    <t>mitigar</t>
-  </si>
-  <si>
-    <t>eliminar</t>
   </si>
   <si>
     <t>transferir</t>
@@ -170,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +251,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +597,7 @@
     <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -631,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -641,276 +633,249 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="7">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="7">
         <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="7">
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="7">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7">
         <v>4</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M18" s="5" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N14" s="3">
         <v>3</v>
       </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O18" s="2">
         <v>6</v>
       </c>
@@ -918,13 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="4">
-        <v>2</v>
-      </c>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O19" s="3">
         <v>4</v>
       </c>
@@ -932,13 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O20" s="4">
         <v>2</v>
       </c>
@@ -946,10 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N21" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O21" s="5" t="s">
         <v>17</v>
       </c>
@@ -957,7 +907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:16" x14ac:dyDescent="0.25">
       <c r="O22" s="1" t="s">
         <v>2</v>
       </c>

--- a/Documentação/Riscos.xlsx
+++ b/Documentação/Riscos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bunag\Desktop\control-block\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C54A3C-B117-4D7F-829B-9ED0C022E44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -156,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,6 +256,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,10 +635,10 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -659,10 +661,10 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -685,10 +687,10 @@
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -711,10 +713,10 @@
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -737,10 +739,10 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -763,10 +765,10 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -789,10 +791,10 @@
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -815,10 +817,10 @@
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="10">
         <v>4</v>
       </c>
       <c r="G10" s="7" t="s">
